--- a/Resources/data/clean_tuition.xlsx
+++ b/Resources/data/clean_tuition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiij8\Documents\DURepos\Overseas_Education_Costs\Resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14D1C2-9CBE-49A7-9819-27A96968E757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCAC617-B97F-44D3-8C71-EF890B50BE84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21744" yWindow="3096" windowWidth="18288" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4716" yWindow="2868" windowWidth="18288" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table C5.1." sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>pvt_fgn_phd</t>
   </si>
   <si>
-    <t>country</t>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:N1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
